--- a/backend/Routes.xlsx
+++ b/backend/Routes.xlsx
@@ -18,15 +18,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="47">
   <si>
-    <t>requete</t>
-  </si>
-  <si>
-    <t>route</t>
-  </si>
-  <si>
-    <t>fonction</t>
-  </si>
-  <si>
     <t>POST</t>
   </si>
   <si>
@@ -129,12 +120,6 @@
     <t>/api/comments/:id</t>
   </si>
   <si>
-    <t>recherche mail de l'utilisateur et si c'est le bon compare le mot de passe et envoi un token</t>
-  </si>
-  <si>
-    <t>crée un utilisateur en vérifiant que l'adressse mail n'est pas déjà enregistré dans la base de donnée, chiffre le mot de passe enregistré</t>
-  </si>
-  <si>
     <t>Les réquêtes POST et PUT s'effectuent sous postman au format Json</t>
   </si>
   <si>
@@ -300,13 +285,28 @@
   </si>
   <si>
     <t xml:space="preserve">exemple : </t>
+  </si>
+  <si>
+    <t>ROUTES</t>
+  </si>
+  <si>
+    <t>FONCTIONS</t>
+  </si>
+  <si>
+    <t>REQUETES</t>
+  </si>
+  <si>
+    <t>crée un utilisateur en vérifiant que l'adressse mail n'est pas déjà enregistréE dans la base de donnée, chiffre le mot de passe enregistré</t>
+  </si>
+  <si>
+    <t>recherche L'email de l'utilisateur, compare le mot de passe et renvoie un token</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -338,8 +338,15 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -367,6 +374,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -403,53 +416,53 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -748,7 +761,7 @@
   <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -758,294 +771,294 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+    </row>
+    <row r="3" spans="1:3" ht="53.25" customHeight="1">
+      <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="45" customHeight="1">
+      <c r="A4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="5" t="s">
+      <c r="C4" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-    </row>
-    <row r="3" spans="1:3" ht="53.25" customHeight="1">
-      <c r="A3" s="3" t="s">
+      <c r="C7" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="45" customHeight="1">
-      <c r="A4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3" t="s">
+      <c r="B13" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="6" t="s">
+      <c r="C13" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="8" t="s">
+      <c r="C14" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="6" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="7" t="s">
+      <c r="B16" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="11" t="s">
+      <c r="B17" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="11" t="s">
+    <row r="18" spans="1:3">
+      <c r="A18" s="15" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" s="10" t="s">
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C19" s="9" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="12" t="s">
+    <row r="20" spans="1:3">
+      <c r="A20" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="13" t="s">
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C19" s="14" t="s">
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" s="9" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B20" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="C20" s="14" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B21" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="C21" s="14" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B22" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="C22" s="14" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B23" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="C23" s="14" t="s">
+    <row r="25" spans="1:3">
+      <c r="A25" s="16" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="B25" s="15"/>
-      <c r="C25" s="15"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="17"/>
-      <c r="B26" s="17"/>
-      <c r="C26" s="17"/>
+      <c r="A26" s="11"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B27" s="16" t="s">
-        <v>40</v>
+        <v>41</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>35</v>
       </c>
       <c r="C27" s="1"/>
     </row>
     <row r="28" spans="1:3">
-      <c r="B28" s="16" t="s">
-        <v>44</v>
+      <c r="B28" s="10" t="s">
+        <v>39</v>
       </c>
       <c r="C28" s="1"/>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="1"/>
-      <c r="B29" s="16" t="s">
-        <v>45</v>
+      <c r="B29" s="10" t="s">
+        <v>40</v>
       </c>
       <c r="C29" s="1"/>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="1"/>
-      <c r="B30" s="16" t="s">
-        <v>41</v>
+      <c r="B30" s="10" t="s">
+        <v>36</v>
       </c>
       <c r="C30" s="1"/>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="1"/>
-      <c r="B31" s="16" t="s">
-        <v>42</v>
+      <c r="B31" s="10" t="s">
+        <v>37</v>
       </c>
       <c r="C31" s="1"/>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="1"/>
-      <c r="B32" s="16" t="s">
-        <v>43</v>
+      <c r="B32" s="10" t="s">
+        <v>38</v>
       </c>
       <c r="C32" s="1"/>
     </row>
